--- a/Energia/Model/t1_confection/A2_Extra_Inputs/A-Xtra_Projections.xlsx
+++ b/Energia/Model/t1_confection/A2_Extra_Inputs/A-Xtra_Projections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\Dropbox\2_WORK\EperLab\2_Herramientas\_mmf_ECU\modelo_energia_202210\t1_confection_v14\A2_Extra_Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Curso_presencial_OSeMOSYS\modelo_energia_202210\osemosys_energia_20240124\osemosys_energia_20240124\t1_confection_v24_CC_2070\A2_Extra_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF33933-A5A2-4593-9F19-00CA144AEE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42559B5B-E017-45DB-9903-E5787D7D153D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projections" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Deal with negatives</t>
         </r>
@@ -63,7 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Deal with negatives</t>
         </r>
@@ -77,7 +77,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Deal with negatives</t>
         </r>
@@ -91,7 +91,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Deal with negatives</t>
         </r>
@@ -105,7 +105,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Leave as flat</t>
         </r>
@@ -119,7 +119,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>0verride with forced variations</t>
         </r>
@@ -133,7 +133,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>override with forced variations</t>
         </r>
@@ -157,7 +157,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Leave as flat</t>
         </r>
@@ -181,7 +181,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Deal with negatives</t>
         </r>
@@ -195,7 +195,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Deal with negatives</t>
         </r>
@@ -209,7 +209,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Deal with negatives</t>
         </r>
@@ -223,7 +223,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Deal with negatives</t>
         </r>
@@ -237,7 +237,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Leave as flat</t>
         </r>
@@ -370,7 +370,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -842,7 +842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -947,12 +947,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1241,28 +1243,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.07421875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="22.07421875" customWidth="1"/>
-    <col min="17" max="17" width="9.921875" customWidth="1"/>
-    <col min="19" max="19" width="10.07421875" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="22.08984375" customWidth="1"/>
+    <col min="17" max="17" width="9.90625" customWidth="1"/>
+    <col min="19" max="19" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
         <v>3</v>
       </c>
@@ -1324,7 +1326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>2019</v>
       </c>
@@ -1382,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2020</v>
       </c>
@@ -1439,7 +1441,7 @@
         <v>-0.14682450169709158</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2021</v>
       </c>
@@ -1496,7 +1498,7 @@
         <v>0.14682450169709158</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2022</v>
       </c>
@@ -1517,19 +1519,19 @@
       <c r="H5" s="17">
         <v>1.3376912516303465E-2</v>
       </c>
-      <c r="I5" s="34">
-        <v>-1.743926755754651E-2</v>
+      <c r="I5" s="75">
+        <v>1.9092930861740909E-2</v>
       </c>
       <c r="J5" s="77"/>
       <c r="K5" s="77"/>
-      <c r="L5" s="46">
-        <v>-1.7439845848830165E-2</v>
-      </c>
-      <c r="M5" s="47">
-        <v>-1.7440487993730058E-2</v>
-      </c>
-      <c r="N5" s="47">
-        <v>-1.7441686974685424E-2</v>
+      <c r="L5" s="75">
+        <v>1.9092930861740909E-2</v>
+      </c>
+      <c r="M5" s="75">
+        <v>1.9092930861740909E-2</v>
+      </c>
+      <c r="N5" s="75">
+        <v>1.9092930861740909E-2</v>
       </c>
       <c r="O5" s="47">
         <v>1.3441864972244167E-2</v>
@@ -1541,7 +1543,7 @@
         <v>1.350621285791464E-2</v>
       </c>
       <c r="R5" s="48">
-        <v>-1.7603783499737301E-2</v>
+        <v>1.9092930861740909E-2</v>
       </c>
       <c r="S5" s="69">
         <f>H5</f>
@@ -1551,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2023</v>
       </c>
@@ -1572,23 +1574,23 @@
       <c r="H6" s="17">
         <v>1.761649579469711E-2</v>
       </c>
-      <c r="I6" s="34">
-        <v>7.6371820635355414E-2</v>
+      <c r="I6" s="75">
+        <v>3.4485324665439521E-2</v>
       </c>
       <c r="J6" s="79">
         <v>1.3114513883800952E-2</v>
       </c>
-      <c r="K6" s="79">
-        <v>7.6382186681373115E-2</v>
-      </c>
-      <c r="L6" s="46">
-        <v>7.637189914627554E-2</v>
-      </c>
-      <c r="M6" s="47">
-        <v>7.6372337971861368E-2</v>
-      </c>
-      <c r="N6" s="47">
-        <v>7.6375637138533056E-2</v>
+      <c r="K6" s="75">
+        <v>3.4485324665439521E-2</v>
+      </c>
+      <c r="L6" s="75">
+        <v>3.4485324665439521E-2</v>
+      </c>
+      <c r="M6" s="75">
+        <v>3.4485324665439521E-2</v>
+      </c>
+      <c r="N6" s="75">
+        <v>3.4485324665439521E-2</v>
       </c>
       <c r="O6" s="47">
         <v>1.3154300076494287E-2</v>
@@ -1600,12 +1602,12 @@
         <v>1.3148542999289303E-2</v>
       </c>
       <c r="R6" s="48">
-        <v>7.6491040385129702E-2</v>
+        <v>3.4485324665439521E-2</v>
       </c>
       <c r="S6" s="52"/>
       <c r="T6" s="48"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2024</v>
       </c>
@@ -1617,9 +1619,8 @@
       <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="72">
-        <f>I7</f>
-        <v>-1.1304953210778365E-2</v>
+      <c r="F7" s="87">
+        <v>0</v>
       </c>
       <c r="G7" s="30">
         <v>1.2861703874005075E-2</v>
@@ -1627,23 +1628,23 @@
       <c r="H7" s="17">
         <v>1.6920667511116642E-2</v>
       </c>
-      <c r="I7" s="34">
-        <v>-1.1304953210778365E-2</v>
+      <c r="I7" s="75">
+        <v>2.9680219832166399E-2</v>
       </c>
       <c r="J7" s="79">
         <v>1.2872432745154767E-2</v>
       </c>
-      <c r="K7" s="79">
-        <v>-1.1271935442551499E-2</v>
-      </c>
-      <c r="L7" s="46">
-        <v>-1.1304284141238017E-2</v>
-      </c>
-      <c r="M7" s="47">
-        <v>-1.1303268662446525E-2</v>
-      </c>
-      <c r="N7" s="47">
-        <v>-1.1304854880273925E-2</v>
+      <c r="K7" s="75">
+        <v>2.9680219832166399E-2</v>
+      </c>
+      <c r="L7" s="75">
+        <v>2.9680219832166399E-2</v>
+      </c>
+      <c r="M7" s="75">
+        <v>2.9680219832166399E-2</v>
+      </c>
+      <c r="N7" s="75">
+        <v>2.9680219832166399E-2</v>
       </c>
       <c r="O7" s="47">
         <v>1.2858799261166853E-2</v>
@@ -1655,12 +1656,12 @@
         <v>1.2802525429673743E-2</v>
       </c>
       <c r="R7" s="48">
-        <v>-1.1428571428571449E-2</v>
+        <v>2.9680219832166399E-2</v>
       </c>
       <c r="S7" s="52"/>
       <c r="T7" s="48"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2025</v>
       </c>
@@ -1672,9 +1673,8 @@
       <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="72">
-        <f>-1*F7</f>
-        <v>1.1304953210778365E-2</v>
+      <c r="F8" s="87">
+        <v>0</v>
       </c>
       <c r="G8" s="30">
         <v>1.2578127132882103E-2</v>
@@ -1682,23 +1682,23 @@
       <c r="H8" s="17">
         <v>1.4242726048165115E-2</v>
       </c>
-      <c r="I8" s="34">
-        <v>6.87128437893232E-2</v>
+      <c r="I8" s="75">
+        <v>2.753007022040177E-2</v>
       </c>
       <c r="J8" s="79">
         <v>1.2566043124375202E-2</v>
       </c>
-      <c r="K8" s="79">
-        <v>6.8791294209094481E-2</v>
-      </c>
-      <c r="L8" s="46">
-        <v>6.8712954407523813E-2</v>
-      </c>
-      <c r="M8" s="47">
-        <v>6.8712354497593345E-2</v>
-      </c>
-      <c r="N8" s="47">
-        <v>6.8709333739203293E-2</v>
+      <c r="K8" s="75">
+        <v>2.753007022040177E-2</v>
+      </c>
+      <c r="L8" s="75">
+        <v>2.753007022040177E-2</v>
+      </c>
+      <c r="M8" s="75">
+        <v>2.753007022040177E-2</v>
+      </c>
+      <c r="N8" s="75">
+        <v>2.753007022040177E-2</v>
       </c>
       <c r="O8" s="47">
         <v>1.2579076802252257E-2</v>
@@ -1710,12 +1710,12 @@
         <v>1.2640692640692586E-2</v>
       </c>
       <c r="R8" s="48">
-        <v>6.886152299572762E-2</v>
+        <v>2.753007022040177E-2</v>
       </c>
       <c r="S8" s="52"/>
       <c r="T8" s="48"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2026</v>
       </c>
@@ -1727,9 +1727,8 @@
       <c r="E9" s="10">
         <v>0</v>
       </c>
-      <c r="F9" s="72">
-        <f>I9</f>
-        <v>-1.2786499233908467E-2</v>
+      <c r="F9" s="87">
+        <v>0</v>
       </c>
       <c r="G9" s="30">
         <v>1.2289214118120338E-2</v>
@@ -1737,23 +1736,23 @@
       <c r="H9" s="17">
         <v>1.0580756697294812E-2</v>
       </c>
-      <c r="I9" s="34">
-        <v>-1.2786499233908467E-2</v>
+      <c r="I9" s="75">
+        <v>2.7212063100346517E-2</v>
       </c>
       <c r="J9" s="79">
         <v>1.2339585389930898E-2</v>
       </c>
-      <c r="K9" s="79">
-        <v>-1.2848484848484876E-2</v>
-      </c>
-      <c r="L9" s="46">
-        <v>-1.2787509196038219E-2</v>
-      </c>
-      <c r="M9" s="47">
-        <v>-1.2784547006236026E-2</v>
-      </c>
-      <c r="N9" s="47">
-        <v>-1.2786278227278071E-2</v>
+      <c r="K9" s="75">
+        <v>2.7212063100346517E-2</v>
+      </c>
+      <c r="L9" s="75">
+        <v>2.7212063100346517E-2</v>
+      </c>
+      <c r="M9" s="75">
+        <v>2.7212063100346517E-2</v>
+      </c>
+      <c r="N9" s="75">
+        <v>2.7212063100346517E-2</v>
       </c>
       <c r="O9" s="47">
         <v>1.2291351029811416E-2</v>
@@ -1765,12 +1764,12 @@
         <v>1.2226402188782549E-2</v>
       </c>
       <c r="R9" s="48">
-        <v>-1.2932047966141646E-2</v>
+        <v>2.7212063100346517E-2</v>
       </c>
       <c r="S9" s="52"/>
       <c r="T9" s="48"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2027</v>
       </c>
@@ -1782,9 +1781,8 @@
       <c r="E10" s="10">
         <v>0</v>
       </c>
-      <c r="F10" s="72">
-        <f>-1*F9</f>
-        <v>1.2786499233908467E-2</v>
+      <c r="F10" s="87">
+        <v>0</v>
       </c>
       <c r="G10" s="30">
         <v>1.2004366780842476E-2</v>
@@ -1792,23 +1790,23 @@
       <c r="H10" s="17">
         <v>1.9608471872491123E-2</v>
       </c>
-      <c r="I10" s="34">
-        <v>6.8910382414313243E-2</v>
+      <c r="I10" s="75">
+        <v>2.9679187465534662E-2</v>
       </c>
       <c r="J10" s="79">
         <v>1.198021870864386E-2</v>
       </c>
-      <c r="K10" s="79">
-        <v>6.888506876227897E-2</v>
-      </c>
-      <c r="L10" s="46">
-        <v>6.8910597906753607E-2</v>
-      </c>
-      <c r="M10" s="47">
-        <v>6.891032499379468E-2</v>
-      </c>
-      <c r="N10" s="47">
-        <v>6.8911419568030124E-2</v>
+      <c r="K10" s="75">
+        <v>2.9679187465534662E-2</v>
+      </c>
+      <c r="L10" s="75">
+        <v>2.9679187465534662E-2</v>
+      </c>
+      <c r="M10" s="75">
+        <v>2.9679187465534662E-2</v>
+      </c>
+      <c r="N10" s="75">
+        <v>2.9679187465534662E-2</v>
       </c>
       <c r="O10" s="47">
         <v>1.2002506338894733E-2</v>
@@ -1820,12 +1818,12 @@
         <v>1.2078722865106788E-2</v>
       </c>
       <c r="R10" s="48">
-        <v>6.9080514530729054E-2</v>
+        <v>2.9679187465534662E-2</v>
       </c>
       <c r="S10" s="52"/>
       <c r="T10" s="48"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2028</v>
       </c>
@@ -1837,9 +1835,8 @@
       <c r="E11" s="10">
         <v>0</v>
       </c>
-      <c r="F11" s="72">
-        <f>I11</f>
-        <v>-3.4830935231535349E-3</v>
+      <c r="F11" s="87">
+        <v>0</v>
       </c>
       <c r="G11" s="30">
         <v>1.1719412735892039E-2</v>
@@ -1847,23 +1844,23 @@
       <c r="H11" s="17">
         <v>1.6548374697717947E-2</v>
       </c>
-      <c r="I11" s="34">
-        <v>-3.4830935231535349E-3</v>
+      <c r="I11" s="75">
+        <v>2.8373759616814986E-2</v>
       </c>
       <c r="J11" s="79">
         <v>1.1700736458118364E-2</v>
       </c>
-      <c r="K11" s="79">
-        <v>-3.4462952326248957E-3</v>
-      </c>
-      <c r="L11" s="46">
-        <v>-3.4823932868860486E-3</v>
-      </c>
-      <c r="M11" s="47">
-        <v>-3.4832324397040351E-3</v>
-      </c>
-      <c r="N11" s="47">
-        <v>-3.483659276191734E-3</v>
+      <c r="K11" s="75">
+        <v>2.8373759616814986E-2</v>
+      </c>
+      <c r="L11" s="75">
+        <v>2.8373759616814986E-2</v>
+      </c>
+      <c r="M11" s="75">
+        <v>2.8373759616814986E-2</v>
+      </c>
+      <c r="N11" s="75">
+        <v>2.8373759616814986E-2</v>
       </c>
       <c r="O11" s="47">
         <v>1.1719000628777404E-2</v>
@@ -1875,12 +1872,12 @@
         <v>1.1684192956100866E-2</v>
       </c>
       <c r="R11" s="48">
-        <v>-3.5650623885918825E-3</v>
+        <v>2.8373759616814986E-2</v>
       </c>
       <c r="S11" s="52"/>
       <c r="T11" s="48"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2029</v>
       </c>
@@ -1892,9 +1889,8 @@
       <c r="E12" s="10">
         <v>0</v>
       </c>
-      <c r="F12" s="72">
-        <f>-1*F11</f>
-        <v>3.4830935231535349E-3</v>
+      <c r="F12" s="87">
+        <v>0</v>
       </c>
       <c r="G12" s="30">
         <v>1.1441100154182458E-2</v>
@@ -1902,23 +1898,23 @@
       <c r="H12" s="17">
         <v>1.0399688061696312E-2</v>
       </c>
-      <c r="I12" s="34">
-        <v>5.4253062352390156E-2</v>
+      <c r="I12" s="75">
+        <v>2.4711298496869816E-2</v>
       </c>
       <c r="J12" s="79">
         <v>1.149738077420231E-2</v>
       </c>
-      <c r="K12" s="79">
-        <v>5.4293948126801078E-2</v>
-      </c>
-      <c r="L12" s="46">
-        <v>5.4252450356857121E-2</v>
-      </c>
-      <c r="M12" s="47">
-        <v>5.4247121310737625E-2</v>
-      </c>
-      <c r="N12" s="47">
-        <v>5.42531985220987E-2</v>
+      <c r="K12" s="75">
+        <v>2.4711298496869816E-2</v>
+      </c>
+      <c r="L12" s="75">
+        <v>2.4711298496869816E-2</v>
+      </c>
+      <c r="M12" s="75">
+        <v>2.4711298496869816E-2</v>
+      </c>
+      <c r="N12" s="75">
+        <v>2.4711298496869816E-2</v>
       </c>
       <c r="O12" s="47">
         <v>1.1440566447558293E-2</v>
@@ -1930,12 +1926,12 @@
         <v>1.1466754660947043E-2</v>
       </c>
       <c r="R12" s="48">
-        <v>5.4338103756708403E-2</v>
+        <v>2.4711298496869816E-2</v>
       </c>
       <c r="S12" s="52"/>
       <c r="T12" s="48"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2030</v>
       </c>
@@ -1947,9 +1943,8 @@
       <c r="E13" s="10">
         <v>0</v>
       </c>
-      <c r="F13" s="72">
-        <f>I13</f>
-        <v>-4.4939545561997699E-3</v>
+      <c r="F13" s="87">
+        <v>0</v>
       </c>
       <c r="G13" s="30">
         <v>1.1158029145882145E-2</v>
@@ -1957,23 +1952,23 @@
       <c r="H13" s="17">
         <v>1.2522666724497962E-2</v>
       </c>
-      <c r="I13" s="34">
-        <v>-4.4939545561997699E-3</v>
+      <c r="I13" s="75">
+        <v>2.5741449174327746E-2</v>
       </c>
       <c r="J13" s="79">
         <v>1.1097659402744186E-2</v>
       </c>
-      <c r="K13" s="79">
-        <v>-4.5921714410669971E-3</v>
-      </c>
-      <c r="L13" s="46">
-        <v>-4.4938619352234239E-3</v>
-      </c>
-      <c r="M13" s="47">
-        <v>-4.4893292682926461E-3</v>
-      </c>
-      <c r="N13" s="47">
-        <v>-4.4921718185467101E-3</v>
+      <c r="K13" s="75">
+        <v>2.5741449174327746E-2</v>
+      </c>
+      <c r="L13" s="75">
+        <v>2.5741449174327746E-2</v>
+      </c>
+      <c r="M13" s="75">
+        <v>2.5741449174327746E-2</v>
+      </c>
+      <c r="N13" s="75">
+        <v>2.5741449174327746E-2</v>
       </c>
       <c r="O13" s="47">
         <v>1.1160679296626454E-2</v>
@@ -1985,12 +1980,12 @@
         <v>1.1092080580703038E-2</v>
       </c>
       <c r="R13" s="48">
-        <v>-4.4538706256627963E-3</v>
+        <v>2.5741449174327746E-2</v>
       </c>
       <c r="S13" s="52"/>
       <c r="T13" s="48"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2031</v>
       </c>
@@ -2002,9 +1997,8 @@
       <c r="E14" s="10">
         <v>0</v>
       </c>
-      <c r="F14" s="72">
-        <f>-1*F13</f>
-        <v>4.4939545561997699E-3</v>
+      <c r="F14" s="87">
+        <v>0</v>
       </c>
       <c r="G14" s="30">
         <v>1.0877039331322946E-2</v>
@@ -2012,23 +2006,23 @@
       <c r="H14" s="17">
         <v>2.0577342841698539E-2</v>
       </c>
-      <c r="I14" s="34">
-        <v>5.9318939245384492E-2</v>
+      <c r="I14" s="75">
+        <v>2.8195304758448225E-2</v>
       </c>
       <c r="J14" s="79">
         <v>1.0909332801170665E-2</v>
       </c>
-      <c r="K14" s="79">
-        <v>5.9424428822495566E-2</v>
-      </c>
-      <c r="L14" s="46">
-        <v>5.9318569708161545E-2</v>
-      </c>
-      <c r="M14" s="47">
-        <v>5.9321190405096112E-2</v>
-      </c>
-      <c r="N14" s="47">
-        <v>5.9319060734491752E-2</v>
+      <c r="K14" s="75">
+        <v>2.8195304758448225E-2</v>
+      </c>
+      <c r="L14" s="75">
+        <v>2.8195304758448225E-2</v>
+      </c>
+      <c r="M14" s="75">
+        <v>2.8195304758448225E-2</v>
+      </c>
+      <c r="N14" s="75">
+        <v>2.8195304758448225E-2</v>
       </c>
       <c r="O14" s="47">
         <v>1.0876271559541992E-2</v>
@@ -2040,12 +2034,12 @@
         <v>1.088973138662575E-2</v>
       </c>
       <c r="R14" s="48">
-        <v>5.9224541968470414E-2</v>
+        <v>2.8195304758448225E-2</v>
       </c>
       <c r="S14" s="52"/>
       <c r="T14" s="48"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2032</v>
       </c>
@@ -2066,23 +2060,23 @@
       <c r="H15" s="17">
         <v>1.3924771802276413E-2</v>
       </c>
-      <c r="I15" s="34">
-        <v>4.3116869786581998E-4</v>
+      <c r="I15" s="75">
+        <v>2.7580770698963253E-2</v>
       </c>
       <c r="J15" s="79">
         <v>1.0594196222938827E-2</v>
       </c>
-      <c r="K15" s="79">
-        <v>4.1472265422490452E-4</v>
-      </c>
-      <c r="L15" s="46">
-        <v>4.3164958790457625E-4</v>
-      </c>
-      <c r="M15" s="47">
-        <v>4.2642690392375517E-4</v>
-      </c>
-      <c r="N15" s="47">
-        <v>4.3016319554147392E-4</v>
+      <c r="K15" s="75">
+        <v>2.7580770698963253E-2</v>
+      </c>
+      <c r="L15" s="75">
+        <v>2.7580770698963253E-2</v>
+      </c>
+      <c r="M15" s="75">
+        <v>2.7580770698963253E-2</v>
+      </c>
+      <c r="N15" s="75">
+        <v>2.7580770698963253E-2</v>
       </c>
       <c r="O15" s="47">
         <v>1.0596696774985086E-2</v>
@@ -2094,12 +2088,12 @@
         <v>1.061283115225034E-2</v>
       </c>
       <c r="R15" s="48">
-        <v>4.0225261464205809E-4</v>
+        <v>2.7580770698963253E-2</v>
       </c>
       <c r="S15" s="52"/>
       <c r="T15" s="48"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2033</v>
       </c>
@@ -2120,23 +2114,23 @@
       <c r="H16" s="17">
         <v>1.8409877222748741E-2</v>
       </c>
-      <c r="I16" s="34">
-        <v>5.1908543748093172E-2</v>
+      <c r="I16" s="75">
+        <v>2.6615668739904841E-2</v>
       </c>
       <c r="J16" s="79">
         <v>1.0287797890350201E-2</v>
       </c>
-      <c r="K16" s="79">
-        <v>5.192247901336932E-2</v>
-      </c>
-      <c r="L16" s="46">
-        <v>5.1907639812318558E-2</v>
-      </c>
-      <c r="M16" s="47">
-        <v>5.1907988845381427E-2</v>
-      </c>
-      <c r="N16" s="47">
-        <v>5.1909407771571221E-2</v>
+      <c r="K16" s="75">
+        <v>2.6615668739904841E-2</v>
+      </c>
+      <c r="L16" s="75">
+        <v>2.6615668739904841E-2</v>
+      </c>
+      <c r="M16" s="75">
+        <v>2.6615668739904841E-2</v>
+      </c>
+      <c r="N16" s="75">
+        <v>2.6615668739904841E-2</v>
       </c>
       <c r="O16" s="47">
         <v>1.031259484066758E-2</v>
@@ -2148,12 +2142,12 @@
         <v>1.0343466245558531E-2</v>
       </c>
       <c r="R16" s="48">
-        <v>5.1869722557297916E-2</v>
+        <v>2.6615668739904841E-2</v>
       </c>
       <c r="S16" s="52"/>
       <c r="T16" s="48"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2034</v>
       </c>
@@ -2174,23 +2168,23 @@
       <c r="H17" s="17">
         <v>1.3494954740113035E-2</v>
       </c>
-      <c r="I17" s="34">
-        <v>3.4074140145541371E-3</v>
+      <c r="I17" s="75">
+        <v>2.5008004641752457E-2</v>
       </c>
       <c r="J17" s="79">
         <v>1.0054137664346496E-2</v>
       </c>
-      <c r="K17" s="79">
-        <v>3.3497536945813144E-3</v>
-      </c>
-      <c r="L17" s="46">
-        <v>3.4098658786089042E-3</v>
-      </c>
-      <c r="M17" s="47">
-        <v>3.406523217241394E-3</v>
-      </c>
-      <c r="N17" s="47">
-        <v>3.4075370958523807E-3</v>
+      <c r="K17" s="75">
+        <v>2.5008004641752457E-2</v>
+      </c>
+      <c r="L17" s="75">
+        <v>2.5008004641752457E-2</v>
+      </c>
+      <c r="M17" s="75">
+        <v>2.5008004641752457E-2</v>
+      </c>
+      <c r="N17" s="75">
+        <v>2.5008004641752457E-2</v>
       </c>
       <c r="O17" s="47">
         <v>1.0036107155945648E-2</v>
@@ -2202,12 +2196,12 @@
         <v>1.0003125976867892E-2</v>
       </c>
       <c r="R17" s="48">
-        <v>3.4403669724770588E-3</v>
+        <v>2.5008004641752457E-2</v>
       </c>
       <c r="S17" s="52"/>
       <c r="T17" s="48"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2035</v>
       </c>
@@ -2228,23 +2222,23 @@
       <c r="H18" s="17">
         <v>1.3752560588430182E-2</v>
       </c>
-      <c r="I18" s="34">
-        <v>4.2576959621918244E-2</v>
+      <c r="I18" s="75">
+        <v>2.4179629008708181E-2</v>
       </c>
       <c r="J18" s="79">
         <v>9.76263399693722E-3</v>
       </c>
-      <c r="K18" s="79">
-        <v>4.2615868028279685E-2</v>
-      </c>
-      <c r="L18" s="46">
-        <v>4.2572053348042781E-2</v>
-      </c>
-      <c r="M18" s="47">
-        <v>4.2580715815987769E-2</v>
-      </c>
-      <c r="N18" s="47">
-        <v>4.2575742281569399E-2</v>
+      <c r="K18" s="75">
+        <v>2.4179629008708181E-2</v>
+      </c>
+      <c r="L18" s="75">
+        <v>2.4179629008708181E-2</v>
+      </c>
+      <c r="M18" s="75">
+        <v>2.4179629008708181E-2</v>
+      </c>
+      <c r="N18" s="75">
+        <v>2.4179629008708181E-2</v>
       </c>
       <c r="O18" s="47">
         <v>9.7579400367000611E-3</v>
@@ -2256,12 +2250,12 @@
         <v>9.7493036211698456E-3</v>
       </c>
       <c r="R18" s="48">
-        <v>4.2666666666666707E-2</v>
+        <v>2.4179629008708181E-2</v>
       </c>
       <c r="S18" s="52"/>
       <c r="T18" s="48"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2036</v>
       </c>
@@ -2282,23 +2276,23 @@
       <c r="H19" s="17">
         <v>1.5904668188188902E-2</v>
       </c>
-      <c r="I19" s="34">
-        <v>8.7440469565708227E-3</v>
+      <c r="I19" s="75">
+        <v>2.4437527418579963E-2</v>
       </c>
       <c r="J19" s="79">
         <v>9.4786729857819912E-3</v>
       </c>
-      <c r="K19" s="79">
-        <v>8.758711621774275E-3</v>
-      </c>
-      <c r="L19" s="46">
-        <v>8.7487245379992366E-3</v>
-      </c>
-      <c r="M19" s="47">
-        <v>8.7447478991596918E-3</v>
-      </c>
-      <c r="N19" s="47">
-        <v>8.7448737543136656E-3</v>
+      <c r="K19" s="75">
+        <v>2.4437527418579963E-2</v>
+      </c>
+      <c r="L19" s="75">
+        <v>2.4437527418579963E-2</v>
+      </c>
+      <c r="M19" s="75">
+        <v>2.4437527418579963E-2</v>
+      </c>
+      <c r="N19" s="75">
+        <v>2.4437527418579963E-2</v>
       </c>
       <c r="O19" s="47">
         <v>9.4839773798304303E-3</v>
@@ -2310,12 +2304,12 @@
         <v>9.5019157088123297E-3</v>
       </c>
       <c r="R19" s="48">
-        <v>8.5860431128973111E-3</v>
+        <v>2.4437527418579963E-2</v>
       </c>
       <c r="S19" s="52"/>
       <c r="T19" s="48"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2037</v>
       </c>
@@ -2336,23 +2330,23 @@
       <c r="H20" s="17">
         <v>1.3362375513559907E-2</v>
       </c>
-      <c r="I20" s="34">
-        <v>3.8303588993128149E-2</v>
+      <c r="I20" s="75">
+        <v>2.364046428542288E-2</v>
       </c>
       <c r="J20" s="79">
         <v>9.2018779342722939E-3</v>
       </c>
-      <c r="K20" s="79">
-        <v>3.8278405377649094E-2</v>
-      </c>
-      <c r="L20" s="46">
-        <v>3.8306640442071813E-2</v>
-      </c>
-      <c r="M20" s="47">
-        <v>3.8300835654596091E-2</v>
-      </c>
-      <c r="N20" s="47">
-        <v>3.8302933907386018E-2</v>
+      <c r="K20" s="75">
+        <v>2.364046428542288E-2</v>
+      </c>
+      <c r="L20" s="75">
+        <v>2.364046428542288E-2</v>
+      </c>
+      <c r="M20" s="75">
+        <v>2.364046428542288E-2</v>
+      </c>
+      <c r="N20" s="75">
+        <v>2.364046428542288E-2</v>
       </c>
       <c r="O20" s="47">
         <v>9.2052284530547961E-3</v>
@@ -2364,12 +2358,12 @@
         <v>9.1847578563836307E-3</v>
       </c>
       <c r="R20" s="48">
-        <v>3.8398840789711959E-2</v>
+        <v>2.364046428542288E-2</v>
       </c>
       <c r="S20" s="52"/>
       <c r="T20" s="48"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2038</v>
       </c>
@@ -2390,23 +2384,23 @@
       <c r="H21" s="17">
         <v>1.4365670809801168E-2</v>
       </c>
-      <c r="I21" s="34">
-        <v>9.6191680313503121E-3</v>
+      <c r="I21" s="75">
+        <v>2.3809666102900362E-2</v>
       </c>
       <c r="J21" s="79">
         <v>8.9318943059173653E-3</v>
       </c>
-      <c r="K21" s="79">
-        <v>9.6214369211402515E-3</v>
-      </c>
-      <c r="L21" s="46">
-        <v>9.6157315533105039E-3</v>
-      </c>
-      <c r="M21" s="47">
-        <v>9.6215924832483563E-3</v>
-      </c>
-      <c r="N21" s="47">
-        <v>9.6170035754256228E-3</v>
+      <c r="K21" s="75">
+        <v>2.3809666102900362E-2</v>
+      </c>
+      <c r="L21" s="75">
+        <v>2.3809666102900362E-2</v>
+      </c>
+      <c r="M21" s="75">
+        <v>2.3809666102900362E-2</v>
+      </c>
+      <c r="N21" s="75">
+        <v>2.3809666102900362E-2</v>
       </c>
       <c r="O21" s="47">
         <v>8.933346824903439E-3</v>
@@ -2418,12 +2412,12 @@
         <v>8.9507333584053998E-3</v>
       </c>
       <c r="R21" s="48">
-        <v>9.5935810221525249E-3</v>
+        <v>2.3809666102900362E-2</v>
       </c>
       <c r="S21" s="52"/>
       <c r="T21" s="48"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>2039</v>
       </c>
@@ -2444,23 +2438,23 @@
       <c r="H22" s="17">
         <v>1.6407986552615144E-2</v>
       </c>
-      <c r="I22" s="34">
-        <v>3.8094322703704497E-2</v>
+      <c r="I22" s="75">
+        <v>2.4208547473253184E-2</v>
       </c>
       <c r="J22" s="79">
         <v>8.6683880486904986E-3</v>
       </c>
-      <c r="K22" s="79">
-        <v>3.811898824367653E-2</v>
-      </c>
-      <c r="L22" s="46">
-        <v>3.8096599538981042E-2</v>
-      </c>
-      <c r="M22" s="47">
-        <v>3.8094765074004278E-2</v>
-      </c>
-      <c r="N22" s="47">
-        <v>3.8095051240296482E-2</v>
+      <c r="K22" s="75">
+        <v>2.4208547473253184E-2</v>
+      </c>
+      <c r="L22" s="75">
+        <v>2.4208547473253184E-2</v>
+      </c>
+      <c r="M22" s="75">
+        <v>2.4208547473253184E-2</v>
+      </c>
+      <c r="N22" s="75">
+        <v>2.4208547473253184E-2</v>
       </c>
       <c r="O22" s="47">
         <v>8.6593979683940326E-3</v>
@@ -2472,12 +2466,12 @@
         <v>8.647681526763271E-3</v>
       </c>
       <c r="R22" s="48">
-        <v>3.8182446440912246E-2</v>
+        <v>2.4208547473253184E-2</v>
       </c>
       <c r="S22" s="52"/>
       <c r="T22" s="48"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>2040</v>
       </c>
@@ -2498,23 +2492,23 @@
       <c r="H23" s="17">
         <v>1.420439756453082E-2</v>
       </c>
-      <c r="I23" s="34">
-        <v>1.1374907497376952E-2</v>
+      <c r="I23" s="75">
+        <v>2.344718128481027E-2</v>
       </c>
       <c r="J23" s="79">
         <v>8.4110440665569296E-3</v>
       </c>
-      <c r="K23" s="79">
-        <v>1.1324639670555877E-2</v>
-      </c>
-      <c r="L23" s="46">
-        <v>1.136930889061016E-2</v>
-      </c>
-      <c r="M23" s="47">
-        <v>1.1375053825175877E-2</v>
-      </c>
-      <c r="N23" s="47">
-        <v>1.1374518055590569E-2</v>
+      <c r="K23" s="75">
+        <v>2.344718128481027E-2</v>
+      </c>
+      <c r="L23" s="75">
+        <v>2.344718128481027E-2</v>
+      </c>
+      <c r="M23" s="75">
+        <v>2.344718128481027E-2</v>
+      </c>
+      <c r="N23" s="75">
+        <v>2.344718128481027E-2</v>
       </c>
       <c r="O23" s="47">
         <v>8.3918785705966292E-3</v>
@@ -2526,12 +2520,12 @@
         <v>8.4257206208424706E-3</v>
       </c>
       <c r="R23" s="48">
-        <v>1.1316358795140617E-2</v>
+        <v>2.344718128481027E-2</v>
       </c>
       <c r="S23" s="52"/>
       <c r="T23" s="48"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>2041</v>
       </c>
@@ -2552,23 +2546,23 @@
       <c r="H24" s="17">
         <v>1.4580871877468171E-2</v>
       </c>
-      <c r="I24" s="34">
-        <v>3.336847691946597E-2</v>
+      <c r="I24" s="75">
+        <v>2.2724114668301487E-2</v>
       </c>
       <c r="J24" s="79">
         <v>8.0991236022967868E-3</v>
       </c>
-      <c r="K24" s="79">
-        <v>3.333898880217176E-2</v>
-      </c>
-      <c r="L24" s="46">
-        <v>3.3367089038473081E-2</v>
-      </c>
-      <c r="M24" s="47">
-        <v>3.3368813198509803E-2</v>
-      </c>
-      <c r="N24" s="47">
-        <v>3.3369150510005358E-2</v>
+      <c r="K24" s="75">
+        <v>2.2724114668301487E-2</v>
+      </c>
+      <c r="L24" s="75">
+        <v>2.2724114668301487E-2</v>
+      </c>
+      <c r="M24" s="75">
+        <v>2.2724114668301487E-2</v>
+      </c>
+      <c r="N24" s="75">
+        <v>2.2724114668301487E-2</v>
       </c>
       <c r="O24" s="47">
         <v>8.1276534605209897E-3</v>
@@ -2580,12 +2574,12 @@
         <v>8.1354441512753867E-3</v>
       </c>
       <c r="R24" s="48">
-        <v>3.3404640447589173E-2</v>
+        <v>2.2724114668301487E-2</v>
       </c>
       <c r="S24" s="52"/>
       <c r="T24" s="48"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>2042</v>
       </c>
@@ -2606,23 +2600,23 @@
       <c r="H25" s="17">
         <v>1.430358517630922E-2</v>
       </c>
-      <c r="I25" s="34">
-        <v>1.2982834012189982E-2</v>
+      <c r="I25" s="75">
+        <v>2.1270207319245449E-2</v>
       </c>
       <c r="J25" s="79">
         <v>7.8541879009533088E-3</v>
       </c>
-      <c r="K25" s="79">
-        <v>1.3053115507758012E-2</v>
-      </c>
-      <c r="L25" s="46">
-        <v>1.2986692140457225E-2</v>
-      </c>
-      <c r="M25" s="47">
-        <v>1.2978317968790279E-2</v>
-      </c>
-      <c r="N25" s="47">
-        <v>1.2984155592861665E-2</v>
+      <c r="K25" s="75">
+        <v>2.1270207319245449E-2</v>
+      </c>
+      <c r="L25" s="75">
+        <v>2.1270207319245449E-2</v>
+      </c>
+      <c r="M25" s="75">
+        <v>2.1270207319245449E-2</v>
+      </c>
+      <c r="N25" s="75">
+        <v>2.1270207319245449E-2</v>
       </c>
       <c r="O25" s="47">
         <v>7.863717912174651E-3</v>
@@ -2634,12 +2628,12 @@
         <v>7.8516902944382704E-3</v>
       </c>
       <c r="R25" s="48">
-        <v>1.2898089171974559E-2</v>
+        <v>2.1270207319245449E-2</v>
       </c>
       <c r="S25" s="52"/>
       <c r="T25" s="48"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>2043</v>
       </c>
@@ -2660,23 +2654,23 @@
       <c r="H26" s="17">
         <v>9.8140949491182464E-3</v>
       </c>
-      <c r="I26" s="34">
-        <v>2.6075455838099941E-2</v>
+      <c r="I26" s="75">
+        <v>1.9845930502683462E-2</v>
       </c>
       <c r="J26" s="79">
         <v>7.6145151695419461E-3</v>
       </c>
-      <c r="K26" s="79">
-        <v>2.6012965964343545E-2</v>
-      </c>
-      <c r="L26" s="46">
-        <v>2.6071263078311376E-2</v>
-      </c>
-      <c r="M26" s="47">
-        <v>2.607600228221494E-2</v>
-      </c>
-      <c r="N26" s="47">
-        <v>2.607580549662758E-2</v>
+      <c r="K26" s="75">
+        <v>1.9845930502683462E-2</v>
+      </c>
+      <c r="L26" s="75">
+        <v>1.9845930502683462E-2</v>
+      </c>
+      <c r="M26" s="75">
+        <v>1.9845930502683462E-2</v>
+      </c>
+      <c r="N26" s="75">
+        <v>1.9845930502683462E-2</v>
       </c>
       <c r="O26" s="47">
         <v>7.6055010258968738E-3</v>
@@ -2688,12 +2682,12 @@
         <v>7.5741181562433198E-3</v>
       </c>
       <c r="R26" s="48">
-        <v>2.6096525703505683E-2</v>
+        <v>1.9845930502683462E-2</v>
       </c>
       <c r="S26" s="52"/>
       <c r="T26" s="48"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>2044</v>
       </c>
@@ -2714,23 +2708,23 @@
       <c r="H27" s="17">
         <v>1.4462272517238618E-2</v>
       </c>
-      <c r="I27" s="34">
-        <v>1.4306292100961588E-2</v>
+      <c r="I27" s="75">
+        <v>2.0057208152534978E-2</v>
       </c>
       <c r="J27" s="79">
         <v>7.3798559452119498E-3</v>
       </c>
-      <c r="K27" s="79">
-        <v>1.4295869204644089E-2</v>
-      </c>
-      <c r="L27" s="46">
-        <v>1.4308803955124414E-2</v>
-      </c>
-      <c r="M27" s="47">
-        <v>1.430875867802275E-2</v>
-      </c>
-      <c r="N27" s="47">
-        <v>1.4304313911981866E-2</v>
+      <c r="K27" s="75">
+        <v>2.0057208152534978E-2</v>
+      </c>
+      <c r="L27" s="75">
+        <v>2.0057208152534978E-2</v>
+      </c>
+      <c r="M27" s="75">
+        <v>2.0057208152534978E-2</v>
+      </c>
+      <c r="N27" s="75">
+        <v>2.0057208152534978E-2</v>
       </c>
       <c r="O27" s="47">
         <v>7.3472150752746405E-3</v>
@@ -2742,12 +2736,12 @@
         <v>7.3739977090492631E-3</v>
       </c>
       <c r="R27" s="48">
-        <v>1.4401715949134331E-2</v>
+        <v>2.0057208152534978E-2</v>
       </c>
       <c r="S27" s="52"/>
       <c r="T27" s="48"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>2045</v>
       </c>
@@ -2768,23 +2762,23 @@
       <c r="H28" s="17">
         <v>1.1417552928981001E-2</v>
       </c>
-      <c r="I28" s="34">
-        <v>2.5614225652361162E-2</v>
+      <c r="I28" s="75">
+        <v>2.0539707595745638E-2</v>
       </c>
       <c r="J28" s="79">
         <v>7.0913672859403854E-3</v>
       </c>
-      <c r="K28" s="79">
-        <v>2.561906245133173E-2</v>
-      </c>
-      <c r="L28" s="46">
-        <v>2.5612785302526239E-2</v>
-      </c>
-      <c r="M28" s="47">
-        <v>2.5613886536833084E-2</v>
-      </c>
-      <c r="N28" s="47">
-        <v>2.5615076302052089E-2</v>
+      <c r="K28" s="75">
+        <v>2.0539707595745638E-2</v>
+      </c>
+      <c r="L28" s="75">
+        <v>2.0539707595745638E-2</v>
+      </c>
+      <c r="M28" s="75">
+        <v>2.0539707595745638E-2</v>
+      </c>
+      <c r="N28" s="75">
+        <v>2.0539707595745638E-2</v>
       </c>
       <c r="O28" s="47">
         <v>7.0914817536392718E-3</v>
@@ -2796,12 +2790,12 @@
         <v>7.1068154360031267E-3</v>
       </c>
       <c r="R28" s="48">
-        <v>2.5524845189548589E-2</v>
+        <v>2.0539707595745638E-2</v>
       </c>
       <c r="S28" s="52"/>
       <c r="T28" s="48"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>2046</v>
       </c>
@@ -2822,23 +2816,23 @@
       <c r="H29" s="17">
         <v>1.5912147902371797E-2</v>
       </c>
-      <c r="I29" s="34">
-        <v>1.663568224395056E-2</v>
+      <c r="I29" s="75">
+        <v>2.0747367240452785E-2</v>
       </c>
       <c r="J29" s="79">
         <v>6.8086592178770219E-3</v>
       </c>
-      <c r="K29" s="79">
-        <v>1.670336345000371E-2</v>
-      </c>
-      <c r="L29" s="46">
-        <v>1.664115277111361E-2</v>
-      </c>
-      <c r="M29" s="47">
-        <v>1.6633590008203167E-2</v>
-      </c>
-      <c r="N29" s="47">
-        <v>1.6635354588380946E-2</v>
+      <c r="K29" s="75">
+        <v>2.0747367240452785E-2</v>
+      </c>
+      <c r="L29" s="75">
+        <v>2.0747367240452785E-2</v>
+      </c>
+      <c r="M29" s="75">
+        <v>2.0747367240452785E-2</v>
+      </c>
+      <c r="N29" s="75">
+        <v>2.0747367240452785E-2</v>
       </c>
       <c r="O29" s="47">
         <v>6.8408246964079423E-3</v>
@@ -2850,12 +2844,12 @@
         <v>6.844965069508142E-3</v>
       </c>
       <c r="R29" s="48">
-        <v>1.6642120765832037E-2</v>
+        <v>2.0747367240452785E-2</v>
       </c>
       <c r="S29" s="52"/>
       <c r="T29" s="48"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>2047</v>
       </c>
@@ -2876,23 +2870,23 @@
       <c r="H30" s="17">
         <v>1.1758356877842805E-2</v>
       </c>
-      <c r="I30" s="34">
-        <v>2.4168948314351627E-2</v>
+      <c r="I30" s="75">
+        <v>1.9430947964774514E-2</v>
       </c>
       <c r="J30" s="79">
         <v>6.5892144962719779E-3</v>
       </c>
-      <c r="K30" s="79">
-        <v>2.4120678067358597E-2</v>
-      </c>
-      <c r="L30" s="46">
-        <v>2.4167328408971827E-2</v>
-      </c>
-      <c r="M30" s="47">
-        <v>2.4169954918843398E-2</v>
-      </c>
-      <c r="N30" s="47">
-        <v>2.4169093172334066E-2</v>
+      <c r="K30" s="75">
+        <v>1.9430947964774514E-2</v>
+      </c>
+      <c r="L30" s="75">
+        <v>1.9430947964774514E-2</v>
+      </c>
+      <c r="M30" s="75">
+        <v>1.9430947964774514E-2</v>
+      </c>
+      <c r="N30" s="75">
+        <v>1.9430947964774514E-2</v>
       </c>
       <c r="O30" s="47">
         <v>6.5949874862267109E-3</v>
@@ -2904,12 +2898,12 @@
         <v>6.5881693299691454E-3</v>
       </c>
       <c r="R30" s="48">
-        <v>2.4192380124583537E-2</v>
+        <v>1.9430947964774514E-2</v>
       </c>
       <c r="S30" s="52"/>
       <c r="T30" s="48"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>2048</v>
       </c>
@@ -2930,23 +2924,23 @@
       <c r="H31" s="17">
         <v>1.1499401363323282E-2</v>
       </c>
-      <c r="I31" s="34">
-        <v>1.2863910630513859E-2</v>
+      <c r="I31" s="75">
+        <v>1.8189815725560887E-2</v>
       </c>
       <c r="J31" s="79">
         <v>6.3738156761411723E-3</v>
       </c>
-      <c r="K31" s="79">
-        <v>1.2906518885810197E-2</v>
-      </c>
-      <c r="L31" s="46">
-        <v>1.286646380712729E-2</v>
-      </c>
-      <c r="M31" s="47">
-        <v>1.2864629131701064E-2</v>
-      </c>
-      <c r="N31" s="47">
-        <v>1.2863518205693123E-2</v>
+      <c r="K31" s="75">
+        <v>1.8189815725560887E-2</v>
+      </c>
+      <c r="L31" s="75">
+        <v>1.8189815725560887E-2</v>
+      </c>
+      <c r="M31" s="75">
+        <v>1.8189815725560887E-2</v>
+      </c>
+      <c r="N31" s="75">
+        <v>1.8189815725560887E-2</v>
       </c>
       <c r="O31" s="47">
         <v>6.3456973174641322E-3</v>
@@ -2958,12 +2952,12 @@
         <v>6.3361648795432152E-3</v>
       </c>
       <c r="R31" s="48">
-        <v>1.2871287128712822E-2</v>
+        <v>1.8189815725560887E-2</v>
       </c>
       <c r="S31" s="52"/>
       <c r="T31" s="48"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>2049</v>
       </c>
@@ -2984,23 +2978,23 @@
       <c r="H32" s="17">
         <v>1.2072756491182618E-2</v>
       </c>
-      <c r="I32" s="34">
-        <v>2.2941700685355431E-2</v>
+      <c r="I32" s="75">
+        <v>1.8164147228994842E-2</v>
       </c>
       <c r="J32" s="79">
         <v>6.1052151089810661E-3</v>
       </c>
-      <c r="K32" s="79">
-        <v>2.2892520336908841E-2</v>
-      </c>
-      <c r="L32" s="46">
-        <v>2.2936210470062363E-2</v>
-      </c>
-      <c r="M32" s="47">
-        <v>2.2943514392388308E-2</v>
-      </c>
-      <c r="N32" s="47">
-        <v>2.294220572920783E-2</v>
+      <c r="K32" s="75">
+        <v>1.8164147228994842E-2</v>
+      </c>
+      <c r="L32" s="75">
+        <v>1.8164147228994842E-2</v>
+      </c>
+      <c r="M32" s="75">
+        <v>1.8164147228994842E-2</v>
+      </c>
+      <c r="N32" s="75">
+        <v>1.8164147228994842E-2</v>
       </c>
       <c r="O32" s="47">
         <v>6.1062205792398556E-3</v>
@@ -3012,12 +3006,12 @@
         <v>6.0887013076869542E-3</v>
       </c>
       <c r="R32" s="48">
-        <v>2.2901829353442264E-2</v>
+        <v>1.8164147228994842E-2</v>
       </c>
       <c r="S32" s="52"/>
       <c r="T32" s="48"/>
     </row>
-    <row r="33" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>2050</v>
       </c>
@@ -3038,23 +3032,23 @@
       <c r="H33" s="27">
         <v>1.2116602962436985E-2</v>
       </c>
-      <c r="I33" s="34">
-        <v>1.3938506634987687E-2</v>
+      <c r="I33" s="86">
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="J33" s="79">
         <v>5.8413202518006069E-3</v>
       </c>
-      <c r="K33" s="79">
-        <v>1.3934830037300231E-2</v>
-      </c>
-      <c r="L33" s="49">
-        <v>1.394311210262129E-2</v>
-      </c>
-      <c r="M33" s="50">
-        <v>1.3937128392300104E-2</v>
-      </c>
-      <c r="N33" s="50">
-        <v>1.3939776033403887E-2</v>
+      <c r="K33" s="86">
+        <v>1.7556787221883141E-2</v>
+      </c>
+      <c r="L33" s="86">
+        <v>1.7556787221883141E-2</v>
+      </c>
+      <c r="M33" s="86">
+        <v>1.7556787221883141E-2</v>
+      </c>
+      <c r="N33" s="86">
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O33" s="50">
         <v>5.8735520980370617E-3</v>
@@ -3066,12 +3060,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R33" s="51">
-        <v>1.3924914675767864E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="S33" s="53"/>
       <c r="T33" s="51"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="18">
         <v>2051</v>
       </c>
@@ -3096,7 +3090,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I34" s="84">
-        <f>K34</f>
         <v>1.9502528124715566E-2</v>
       </c>
       <c r="J34" s="80">
@@ -3107,15 +3100,15 @@
       </c>
       <c r="L34" s="58">
         <f>L33</f>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M34" s="64">
-        <f t="shared" ref="M34:R34" si="0">M33</f>
-        <v>1.3937128392300104E-2</v>
+        <f t="shared" ref="M34:Q34" si="0">M33</f>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N34" s="64">
         <f t="shared" si="0"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O34" s="64">
         <f t="shared" si="0"/>
@@ -3130,13 +3123,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R34" s="59">
-        <f t="shared" si="0"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S34" s="58"/>
       <c r="T34" s="59"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="18">
         <v>2052</v>
       </c>
@@ -3161,7 +3153,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I35" s="84">
-        <f>K35</f>
         <v>2.0215928131274489E-2</v>
       </c>
       <c r="J35" s="80">
@@ -3171,16 +3162,16 @@
         <v>2.0215928131274489E-2</v>
       </c>
       <c r="L35" s="60">
-        <f t="shared" ref="I35:L53" si="3">L34</f>
-        <v>1.394311210262129E-2</v>
+        <f t="shared" ref="L35:L53" si="3">L34</f>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M35" s="65">
         <f t="shared" ref="M35:M53" si="4">M34</f>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N35" s="65">
         <f t="shared" ref="N35:N53" si="5">N34</f>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O35" s="65">
         <f t="shared" ref="O35:O53" si="6">O34</f>
@@ -3195,13 +3186,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R35" s="61">
-        <f t="shared" ref="R35:R53" si="9">R34</f>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S35" s="60"/>
       <c r="T35" s="61"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="18">
         <v>2053</v>
       </c>
@@ -3218,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="82">
-        <f t="shared" ref="G36:G52" si="10">J36</f>
+        <f t="shared" ref="G36:G52" si="9">J36</f>
         <v>5.1685070196908134E-3</v>
       </c>
       <c r="H36" s="28">
@@ -3226,7 +3216,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I36" s="84">
-        <f t="shared" ref="I36:I53" si="11">K36</f>
         <v>1.9020241877802827E-2</v>
       </c>
       <c r="J36" s="80">
@@ -3237,15 +3226,15 @@
       </c>
       <c r="L36" s="60">
         <f t="shared" si="3"/>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M36" s="65">
         <f t="shared" si="4"/>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N36" s="65">
         <f t="shared" si="5"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O36" s="65">
         <f t="shared" si="6"/>
@@ -3260,13 +3249,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R36" s="61">
-        <f t="shared" si="9"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S36" s="60"/>
       <c r="T36" s="61"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="18">
         <v>2054</v>
       </c>
@@ -3283,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.9340464568516894E-3</v>
       </c>
       <c r="H37" s="28">
@@ -3291,7 +3279,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I37" s="84">
-        <f t="shared" si="11"/>
         <v>1.9569097138312869E-2</v>
       </c>
       <c r="J37" s="80">
@@ -3302,15 +3289,15 @@
       </c>
       <c r="L37" s="60">
         <f t="shared" si="3"/>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M37" s="65">
         <f t="shared" si="4"/>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N37" s="65">
         <f t="shared" si="5"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O37" s="65">
         <f t="shared" si="6"/>
@@ -3325,13 +3312,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R37" s="61">
-        <f t="shared" si="9"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S37" s="60"/>
       <c r="T37" s="61"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="18">
         <v>2055</v>
       </c>
@@ -3348,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.6995229232836546E-3</v>
       </c>
       <c r="H38" s="28">
@@ -3356,7 +3342,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I38" s="84">
-        <f t="shared" si="11"/>
         <v>1.8977609983786933E-2</v>
       </c>
       <c r="J38" s="80">
@@ -3367,15 +3352,15 @@
       </c>
       <c r="L38" s="60">
         <f t="shared" si="3"/>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M38" s="65">
         <f t="shared" si="4"/>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N38" s="65">
         <f t="shared" si="5"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O38" s="65">
         <f t="shared" si="6"/>
@@ -3390,13 +3375,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R38" s="61">
-        <f t="shared" si="9"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S38" s="60"/>
       <c r="T38" s="61"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="18">
         <v>2056</v>
       </c>
@@ -3413,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.464974493929681E-3</v>
       </c>
       <c r="H39" s="28">
@@ -3421,7 +3405,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I39" s="84">
-        <f t="shared" si="11"/>
         <v>1.940227524586172E-2</v>
       </c>
       <c r="J39" s="80">
@@ -3432,15 +3415,15 @@
       </c>
       <c r="L39" s="60">
         <f t="shared" si="3"/>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M39" s="65">
         <f t="shared" si="4"/>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N39" s="65">
         <f t="shared" si="5"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O39" s="65">
         <f t="shared" si="6"/>
@@ -3455,13 +3438,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R39" s="61">
-        <f t="shared" si="9"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S39" s="60"/>
       <c r="T39" s="61"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="18">
         <v>2057</v>
       </c>
@@ -3478,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.2304760952970658E-3</v>
       </c>
       <c r="H40" s="28">
@@ -3486,7 +3468,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I40" s="84">
-        <f t="shared" si="11"/>
         <v>1.8837552481634708E-2</v>
       </c>
       <c r="J40" s="80">
@@ -3497,15 +3478,15 @@
       </c>
       <c r="L40" s="60">
         <f t="shared" si="3"/>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M40" s="65">
         <f t="shared" si="4"/>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N40" s="65">
         <f t="shared" si="5"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O40" s="65">
         <f t="shared" si="6"/>
@@ -3520,13 +3501,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R40" s="61">
-        <f t="shared" si="9"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S40" s="60"/>
       <c r="T40" s="61"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="18">
         <v>2058</v>
       </c>
@@ -3543,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.9959321989630195E-3</v>
       </c>
       <c r="H41" s="28">
@@ -3551,7 +3531,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I41" s="84">
-        <f t="shared" si="11"/>
         <v>1.9037722503242316E-2</v>
       </c>
       <c r="J41" s="80">
@@ -3562,15 +3541,15 @@
       </c>
       <c r="L41" s="60">
         <f t="shared" si="3"/>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M41" s="65">
         <f t="shared" si="4"/>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N41" s="65">
         <f t="shared" si="5"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O41" s="65">
         <f t="shared" si="6"/>
@@ -3585,13 +3564,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R41" s="61">
-        <f t="shared" si="9"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S41" s="60"/>
       <c r="T41" s="61"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="18">
         <v>2059</v>
       </c>
@@ -3608,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.7614517040862288E-3</v>
       </c>
       <c r="H42" s="28">
@@ -3616,7 +3594,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I42" s="84">
-        <f t="shared" si="11"/>
         <v>1.8571247429505007E-2</v>
       </c>
       <c r="J42" s="80">
@@ -3627,15 +3604,15 @@
       </c>
       <c r="L42" s="60">
         <f t="shared" si="3"/>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M42" s="65">
         <f t="shared" si="4"/>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N42" s="65">
         <f t="shared" si="5"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O42" s="65">
         <f t="shared" si="6"/>
@@ -3650,13 +3627,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R42" s="61">
-        <f t="shared" si="9"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S42" s="60"/>
       <c r="T42" s="61"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="18">
         <v>2060</v>
       </c>
@@ -3673,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.5268921270005422E-3</v>
       </c>
       <c r="H43" s="28">
@@ -3681,7 +3657,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I43" s="84">
-        <f t="shared" si="11"/>
         <v>1.9090096229413472E-2</v>
       </c>
       <c r="J43" s="80">
@@ -3692,15 +3667,15 @@
       </c>
       <c r="L43" s="60">
         <f t="shared" si="3"/>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M43" s="65">
         <f t="shared" si="4"/>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N43" s="65">
         <f t="shared" si="5"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O43" s="65">
         <f t="shared" si="6"/>
@@ -3715,13 +3690,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R43" s="61">
-        <f t="shared" si="9"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S43" s="60"/>
       <c r="T43" s="61"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="18">
         <v>2061</v>
       </c>
@@ -3738,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.2924374588490959E-3</v>
       </c>
       <c r="H44" s="28">
@@ -3746,7 +3720,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I44" s="84">
-        <f t="shared" si="11"/>
         <v>1.8739950369782234E-2</v>
       </c>
       <c r="J44" s="80">
@@ -3757,15 +3730,15 @@
       </c>
       <c r="L44" s="60">
         <f t="shared" si="3"/>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M44" s="65">
         <f t="shared" si="4"/>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N44" s="65">
         <f t="shared" si="5"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O44" s="65">
         <f t="shared" si="6"/>
@@ -3780,13 +3753,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R44" s="61">
-        <f t="shared" si="9"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S44" s="60"/>
       <c r="T44" s="61"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="18">
         <v>2062</v>
       </c>
@@ -3803,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.0578583456642942E-3</v>
       </c>
       <c r="H45" s="28">
@@ -3811,7 +3783,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I45" s="84">
-        <f t="shared" si="11"/>
         <v>1.9176445254763811E-2</v>
       </c>
       <c r="J45" s="80">
@@ -3822,15 +3793,15 @@
       </c>
       <c r="L45" s="60">
         <f t="shared" si="3"/>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M45" s="65">
         <f t="shared" si="4"/>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N45" s="65">
         <f t="shared" si="5"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O45" s="65">
         <f t="shared" si="6"/>
@@ -3845,13 +3816,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R45" s="61">
-        <f t="shared" si="9"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S45" s="60"/>
       <c r="T45" s="61"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="18">
         <v>2063</v>
       </c>
@@ -3868,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.8233730622352956E-3</v>
       </c>
       <c r="H46" s="28">
@@ -3876,7 +3846,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I46" s="84">
-        <f t="shared" si="11"/>
         <v>1.9148924240489189E-2</v>
       </c>
       <c r="J46" s="80">
@@ -3887,15 +3856,15 @@
       </c>
       <c r="L46" s="60">
         <f t="shared" si="3"/>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M46" s="65">
         <f t="shared" si="4"/>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N46" s="65">
         <f t="shared" si="5"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O46" s="65">
         <f t="shared" si="6"/>
@@ -3910,13 +3879,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R46" s="61">
-        <f t="shared" si="9"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S46" s="60"/>
       <c r="T46" s="61"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="18">
         <v>2064</v>
       </c>
@@ -3933,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.588829605579001E-3</v>
       </c>
       <c r="H47" s="28">
@@ -3941,7 +3909,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I47" s="84">
-        <f t="shared" si="11"/>
         <v>1.9051923886781511E-2</v>
       </c>
       <c r="J47" s="80">
@@ -3952,15 +3919,15 @@
       </c>
       <c r="L47" s="60">
         <f t="shared" si="3"/>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M47" s="65">
         <f t="shared" si="4"/>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N47" s="65">
         <f t="shared" si="5"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O47" s="65">
         <f t="shared" si="6"/>
@@ -3975,13 +3942,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R47" s="61">
-        <f t="shared" si="9"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S47" s="60"/>
       <c r="T47" s="61"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="18">
         <v>2065</v>
       </c>
@@ -3998,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.3543584508519569E-3</v>
       </c>
       <c r="H48" s="28">
@@ -4006,7 +3972,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I48" s="84">
-        <f t="shared" si="11"/>
         <v>1.9054804069415877E-2</v>
       </c>
       <c r="J48" s="80">
@@ -4017,15 +3982,15 @@
       </c>
       <c r="L48" s="60">
         <f t="shared" si="3"/>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M48" s="65">
         <f t="shared" si="4"/>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N48" s="65">
         <f t="shared" si="5"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O48" s="65">
         <f t="shared" si="6"/>
@@ -4040,13 +4005,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R48" s="61">
-        <f t="shared" si="9"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S48" s="60"/>
       <c r="T48" s="61"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="18">
         <v>2066</v>
       </c>
@@ -4063,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.119804193110553E-3</v>
       </c>
       <c r="H49" s="28">
@@ -4071,7 +4035,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I49" s="84">
-        <f t="shared" si="11"/>
         <v>1.9008050154061512E-2</v>
       </c>
       <c r="J49" s="80">
@@ -4082,15 +4045,15 @@
       </c>
       <c r="L49" s="60">
         <f t="shared" si="3"/>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M49" s="65">
         <f t="shared" si="4"/>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N49" s="65">
         <f t="shared" si="5"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O49" s="65">
         <f t="shared" si="6"/>
@@ -4105,13 +4068,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R49" s="61">
-        <f t="shared" si="9"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S49" s="60"/>
       <c r="T49" s="61"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="18">
         <v>2067</v>
       </c>
@@ -4128,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.8852926346972704E-3</v>
       </c>
       <c r="H50" s="28">
@@ -4136,7 +4098,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I50" s="84">
-        <f t="shared" si="11"/>
         <v>1.9010817442268294E-2</v>
       </c>
       <c r="J50" s="80">
@@ -4147,15 +4108,15 @@
       </c>
       <c r="L50" s="60">
         <f t="shared" si="3"/>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M50" s="65">
         <f t="shared" si="4"/>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N50" s="65">
         <f t="shared" si="5"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O50" s="65">
         <f t="shared" si="6"/>
@@ -4170,13 +4131,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R50" s="61">
-        <f t="shared" si="9"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S50" s="60"/>
       <c r="T50" s="61"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="18">
         <v>2068</v>
       </c>
@@ -4193,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.6507858690257345E-3</v>
       </c>
       <c r="H51" s="28">
@@ -4201,7 +4161,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I51" s="84">
-        <f t="shared" si="11"/>
         <v>1.8975230369214221E-2</v>
       </c>
       <c r="J51" s="80">
@@ -4212,15 +4171,15 @@
       </c>
       <c r="L51" s="60">
         <f t="shared" si="3"/>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M51" s="65">
         <f t="shared" si="4"/>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N51" s="65">
         <f t="shared" si="5"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O51" s="65">
         <f t="shared" si="6"/>
@@ -4235,13 +4194,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R51" s="61">
-        <f t="shared" si="9"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S51" s="60"/>
       <c r="T51" s="61"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="18">
         <v>2069</v>
       </c>
@@ -4258,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.4162447374115865E-3</v>
       </c>
       <c r="H52" s="28">
@@ -4266,7 +4224,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I52" s="84">
-        <f t="shared" si="11"/>
         <v>1.8987746540812468E-2</v>
       </c>
       <c r="J52" s="80">
@@ -4277,15 +4234,15 @@
       </c>
       <c r="L52" s="60">
         <f t="shared" si="3"/>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M52" s="65">
         <f t="shared" si="4"/>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N52" s="65">
         <f t="shared" si="5"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O52" s="65">
         <f t="shared" si="6"/>
@@ -4300,13 +4257,12 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R52" s="61">
-        <f t="shared" si="9"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S52" s="60"/>
       <c r="T52" s="61"/>
     </row>
-    <row r="53" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="22">
         <v>2070</v>
       </c>
@@ -4333,7 +4289,6 @@
         <v>1.2116602962436985E-2</v>
       </c>
       <c r="I53" s="85">
-        <f t="shared" si="11"/>
         <v>1.8983203271500659E-2</v>
       </c>
       <c r="J53" s="81">
@@ -4344,15 +4299,15 @@
       </c>
       <c r="L53" s="62">
         <f t="shared" si="3"/>
-        <v>1.394311210262129E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="M53" s="66">
         <f t="shared" si="4"/>
-        <v>1.3937128392300104E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="N53" s="66">
         <f t="shared" si="5"/>
-        <v>1.3939776033403887E-2</v>
+        <v>1.7556787221883141E-2</v>
       </c>
       <c r="O53" s="66">
         <f t="shared" si="6"/>
@@ -4367,109 +4322,108 @@
         <v>5.8455401966851957E-3</v>
       </c>
       <c r="R53" s="63">
-        <f t="shared" si="9"/>
-        <v>1.3924914675767864E-2</v>
+        <v>1.8260226668870505E-2</v>
       </c>
       <c r="S53" s="62"/>
       <c r="T53" s="63"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G57" s="26"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G58" s="26"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G59" s="26"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G60" s="26"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G61" s="26"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G62" s="26"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G63" s="26"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G64" s="26"/>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G65" s="26"/>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G66" s="26"/>
     </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G67" s="26"/>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G68" s="26"/>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G69" s="26"/>
     </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G70" s="26"/>
     </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G71" s="26"/>
     </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G72" s="26"/>
     </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G73" s="26"/>
     </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G74" s="26"/>
     </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G75" s="26"/>
     </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G76" s="26"/>
     </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G77" s="26"/>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G78" s="26"/>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G79" s="26"/>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G80" s="26"/>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G81" s="26"/>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G82" s="26"/>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G83" s="26"/>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G84" s="26"/>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G85" s="26"/>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G86" s="26"/>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G87" s="26"/>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G88" s="26"/>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G89" s="26"/>
     </row>
   </sheetData>
@@ -4485,13 +4439,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.4609375" customWidth="1"/>
+    <col min="1" max="1" width="33.453125" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4499,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -4507,7 +4461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -4515,7 +4469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -4523,7 +4477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4531,7 +4485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
@@ -4539,7 +4493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -4547,7 +4501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -4555,7 +4509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -4563,7 +4517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -4571,7 +4525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -4579,7 +4533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -4587,7 +4541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -4595,7 +4549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -4603,7 +4557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -4611,7 +4565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -4619,7 +4573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -4627,7 +4581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15" t="s">
         <v>23</v>
       </c>
@@ -4652,24 +4606,24 @@
       <selection activeCell="F4" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.23046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.07421875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.15234375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.23046875" customWidth="1"/>
-    <col min="16" max="16" width="11.15234375" customWidth="1"/>
-    <col min="17" max="17" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.26953125" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
         <v>3</v>
       </c>
@@ -4725,7 +4679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>2019</v>
       </c>
@@ -4781,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2020</v>
       </c>
@@ -4835,7 +4789,7 @@
         <v>-0.14682450169709158</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2021</v>
       </c>
@@ -4889,7 +4843,7 @@
         <v>0.14682450169709158</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2022</v>
       </c>
@@ -4942,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2023</v>
       </c>
@@ -4990,7 +4944,7 @@
       <c r="Q6" s="52"/>
       <c r="R6" s="48"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2024</v>
       </c>
@@ -5038,7 +4992,7 @@
       <c r="Q7" s="52"/>
       <c r="R7" s="48"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2025</v>
       </c>
@@ -5086,7 +5040,7 @@
       <c r="Q8" s="52"/>
       <c r="R8" s="48"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2026</v>
       </c>
@@ -5134,7 +5088,7 @@
       <c r="Q9" s="52"/>
       <c r="R9" s="48"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2027</v>
       </c>
@@ -5182,7 +5136,7 @@
       <c r="Q10" s="52"/>
       <c r="R10" s="48"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2028</v>
       </c>
@@ -5230,7 +5184,7 @@
       <c r="Q11" s="52"/>
       <c r="R11" s="48"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2029</v>
       </c>
@@ -5278,7 +5232,7 @@
       <c r="Q12" s="52"/>
       <c r="R12" s="48"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2030</v>
       </c>
@@ -5326,7 +5280,7 @@
       <c r="Q13" s="52"/>
       <c r="R13" s="48"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2031</v>
       </c>
@@ -5374,7 +5328,7 @@
       <c r="Q14" s="52"/>
       <c r="R14" s="48"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2032</v>
       </c>
@@ -5422,7 +5376,7 @@
       <c r="Q15" s="52"/>
       <c r="R15" s="48"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2033</v>
       </c>
@@ -5470,7 +5424,7 @@
       <c r="Q16" s="52"/>
       <c r="R16" s="48"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2034</v>
       </c>
@@ -5518,7 +5472,7 @@
       <c r="Q17" s="52"/>
       <c r="R17" s="48"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2035</v>
       </c>
@@ -5566,7 +5520,7 @@
       <c r="Q18" s="52"/>
       <c r="R18" s="48"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2036</v>
       </c>
@@ -5614,7 +5568,7 @@
       <c r="Q19" s="52"/>
       <c r="R19" s="48"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2037</v>
       </c>
@@ -5662,7 +5616,7 @@
       <c r="Q20" s="52"/>
       <c r="R20" s="48"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2038</v>
       </c>
@@ -5710,7 +5664,7 @@
       <c r="Q21" s="52"/>
       <c r="R21" s="48"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>2039</v>
       </c>
@@ -5758,7 +5712,7 @@
       <c r="Q22" s="52"/>
       <c r="R22" s="48"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>2040</v>
       </c>
@@ -5806,7 +5760,7 @@
       <c r="Q23" s="52"/>
       <c r="R23" s="48"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>2041</v>
       </c>
@@ -5854,7 +5808,7 @@
       <c r="Q24" s="52"/>
       <c r="R24" s="48"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>2042</v>
       </c>
@@ -5902,7 +5856,7 @@
       <c r="Q25" s="52"/>
       <c r="R25" s="48"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>2043</v>
       </c>
@@ -5950,7 +5904,7 @@
       <c r="Q26" s="52"/>
       <c r="R26" s="48"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>2044</v>
       </c>
@@ -5998,7 +5952,7 @@
       <c r="Q27" s="52"/>
       <c r="R27" s="48"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>2045</v>
       </c>
@@ -6046,7 +6000,7 @@
       <c r="Q28" s="52"/>
       <c r="R28" s="48"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>2046</v>
       </c>
@@ -6094,7 +6048,7 @@
       <c r="Q29" s="52"/>
       <c r="R29" s="48"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>2047</v>
       </c>
@@ -6142,7 +6096,7 @@
       <c r="Q30" s="52"/>
       <c r="R30" s="48"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>2048</v>
       </c>
@@ -6190,7 +6144,7 @@
       <c r="Q31" s="52"/>
       <c r="R31" s="48"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>2049</v>
       </c>
@@ -6238,7 +6192,7 @@
       <c r="Q32" s="52"/>
       <c r="R32" s="48"/>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>2050</v>
       </c>
@@ -6286,7 +6240,7 @@
       <c r="Q33" s="53"/>
       <c r="R33" s="51"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="18">
         <v>2051</v>
       </c>
@@ -6345,7 +6299,7 @@
       <c r="Q34" s="58"/>
       <c r="R34" s="59"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="18">
         <v>2052</v>
       </c>
@@ -6404,7 +6358,7 @@
       <c r="Q35" s="60"/>
       <c r="R35" s="61"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="18">
         <v>2053</v>
       </c>
@@ -6463,7 +6417,7 @@
       <c r="Q36" s="60"/>
       <c r="R36" s="61"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="18">
         <v>2054</v>
       </c>
@@ -6522,7 +6476,7 @@
       <c r="Q37" s="60"/>
       <c r="R37" s="61"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="18">
         <v>2055</v>
       </c>
@@ -6581,7 +6535,7 @@
       <c r="Q38" s="60"/>
       <c r="R38" s="61"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="18">
         <v>2056</v>
       </c>
@@ -6640,7 +6594,7 @@
       <c r="Q39" s="60"/>
       <c r="R39" s="61"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="18">
         <v>2057</v>
       </c>
@@ -6699,7 +6653,7 @@
       <c r="Q40" s="60"/>
       <c r="R40" s="61"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="18">
         <v>2058</v>
       </c>
@@ -6758,7 +6712,7 @@
       <c r="Q41" s="60"/>
       <c r="R41" s="61"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="18">
         <v>2059</v>
       </c>
@@ -6817,7 +6771,7 @@
       <c r="Q42" s="60"/>
       <c r="R42" s="61"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="18">
         <v>2060</v>
       </c>
@@ -6876,7 +6830,7 @@
       <c r="Q43" s="60"/>
       <c r="R43" s="61"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="18">
         <v>2061</v>
       </c>
@@ -6935,7 +6889,7 @@
       <c r="Q44" s="60"/>
       <c r="R44" s="61"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="18">
         <v>2062</v>
       </c>
@@ -6994,7 +6948,7 @@
       <c r="Q45" s="60"/>
       <c r="R45" s="61"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="18">
         <v>2063</v>
       </c>
@@ -7053,7 +7007,7 @@
       <c r="Q46" s="60"/>
       <c r="R46" s="61"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="18">
         <v>2064</v>
       </c>
@@ -7112,7 +7066,7 @@
       <c r="Q47" s="60"/>
       <c r="R47" s="61"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="18">
         <v>2065</v>
       </c>
@@ -7171,7 +7125,7 @@
       <c r="Q48" s="60"/>
       <c r="R48" s="61"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="18">
         <v>2066</v>
       </c>
@@ -7230,7 +7184,7 @@
       <c r="Q49" s="60"/>
       <c r="R49" s="61"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="18">
         <v>2067</v>
       </c>
@@ -7289,7 +7243,7 @@
       <c r="Q50" s="60"/>
       <c r="R50" s="61"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="18">
         <v>2068</v>
       </c>
@@ -7348,7 +7302,7 @@
       <c r="Q51" s="60"/>
       <c r="R51" s="61"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="18">
         <v>2069</v>
       </c>
@@ -7407,7 +7361,7 @@
       <c r="Q52" s="60"/>
       <c r="R52" s="61"/>
     </row>
-    <row r="53" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="22">
         <v>2070</v>
       </c>
@@ -7485,23 +7439,23 @@
       <selection activeCell="I2" sqref="E2:I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.23046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.07421875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.15234375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.61328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
         <v>3</v>
       </c>
@@ -7557,7 +7511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>2019</v>
       </c>
@@ -7613,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2020</v>
       </c>
@@ -7666,7 +7620,7 @@
         <v>-0.14682450169709158</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2021</v>
       </c>
@@ -7719,7 +7673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2022</v>
       </c>
@@ -7772,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2023</v>
       </c>
@@ -7820,7 +7774,7 @@
       <c r="Q6" s="52"/>
       <c r="R6" s="48"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2024</v>
       </c>
@@ -7869,7 +7823,7 @@
       <c r="Q7" s="52"/>
       <c r="R7" s="48"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2025</v>
       </c>
@@ -7918,7 +7872,7 @@
       <c r="Q8" s="52"/>
       <c r="R8" s="48"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2026</v>
       </c>
@@ -7967,7 +7921,7 @@
       <c r="Q9" s="52"/>
       <c r="R9" s="48"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2027</v>
       </c>
@@ -8016,7 +7970,7 @@
       <c r="Q10" s="52"/>
       <c r="R10" s="48"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2028</v>
       </c>
@@ -8065,7 +8019,7 @@
       <c r="Q11" s="52"/>
       <c r="R11" s="48"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2029</v>
       </c>
@@ -8114,7 +8068,7 @@
       <c r="Q12" s="52"/>
       <c r="R12" s="48"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2030</v>
       </c>
@@ -8163,7 +8117,7 @@
       <c r="Q13" s="52"/>
       <c r="R13" s="48"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2031</v>
       </c>
@@ -8212,7 +8166,7 @@
       <c r="Q14" s="52"/>
       <c r="R14" s="48"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2032</v>
       </c>
@@ -8260,7 +8214,7 @@
       <c r="Q15" s="52"/>
       <c r="R15" s="48"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2033</v>
       </c>
@@ -8308,7 +8262,7 @@
       <c r="Q16" s="52"/>
       <c r="R16" s="48"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2034</v>
       </c>
@@ -8356,7 +8310,7 @@
       <c r="Q17" s="52"/>
       <c r="R17" s="48"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2035</v>
       </c>
@@ -8404,7 +8358,7 @@
       <c r="Q18" s="52"/>
       <c r="R18" s="48"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2036</v>
       </c>
@@ -8452,7 +8406,7 @@
       <c r="Q19" s="52"/>
       <c r="R19" s="48"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2037</v>
       </c>
@@ -8500,7 +8454,7 @@
       <c r="Q20" s="52"/>
       <c r="R20" s="48"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2038</v>
       </c>
@@ -8548,7 +8502,7 @@
       <c r="Q21" s="52"/>
       <c r="R21" s="48"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>2039</v>
       </c>
@@ -8596,7 +8550,7 @@
       <c r="Q22" s="52"/>
       <c r="R22" s="48"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>2040</v>
       </c>
@@ -8644,7 +8598,7 @@
       <c r="Q23" s="52"/>
       <c r="R23" s="48"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>2041</v>
       </c>
@@ -8692,7 +8646,7 @@
       <c r="Q24" s="52"/>
       <c r="R24" s="48"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>2042</v>
       </c>
@@ -8740,7 +8694,7 @@
       <c r="Q25" s="52"/>
       <c r="R25" s="48"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>2043</v>
       </c>
@@ -8788,7 +8742,7 @@
       <c r="Q26" s="52"/>
       <c r="R26" s="48"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>2044</v>
       </c>
@@ -8836,7 +8790,7 @@
       <c r="Q27" s="52"/>
       <c r="R27" s="48"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>2045</v>
       </c>
@@ -8884,7 +8838,7 @@
       <c r="Q28" s="52"/>
       <c r="R28" s="48"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>2046</v>
       </c>
@@ -8932,7 +8886,7 @@
       <c r="Q29" s="52"/>
       <c r="R29" s="48"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>2047</v>
       </c>
@@ -8980,7 +8934,7 @@
       <c r="Q30" s="52"/>
       <c r="R30" s="48"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>2048</v>
       </c>
@@ -9028,7 +8982,7 @@
       <c r="Q31" s="52"/>
       <c r="R31" s="48"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>2049</v>
       </c>
@@ -9076,7 +9030,7 @@
       <c r="Q32" s="52"/>
       <c r="R32" s="48"/>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>2050</v>
       </c>
@@ -9124,7 +9078,7 @@
       <c r="Q33" s="53"/>
       <c r="R33" s="51"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="18">
         <v>2051</v>
       </c>
@@ -9183,7 +9137,7 @@
       <c r="Q34" s="58"/>
       <c r="R34" s="59"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="18">
         <v>2052</v>
       </c>
@@ -9242,7 +9196,7 @@
       <c r="Q35" s="60"/>
       <c r="R35" s="61"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="18">
         <v>2053</v>
       </c>
@@ -9301,7 +9255,7 @@
       <c r="Q36" s="60"/>
       <c r="R36" s="61"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="18">
         <v>2054</v>
       </c>
@@ -9360,7 +9314,7 @@
       <c r="Q37" s="60"/>
       <c r="R37" s="61"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="18">
         <v>2055</v>
       </c>
@@ -9419,7 +9373,7 @@
       <c r="Q38" s="60"/>
       <c r="R38" s="61"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="18">
         <v>2056</v>
       </c>
@@ -9478,7 +9432,7 @@
       <c r="Q39" s="60"/>
       <c r="R39" s="61"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="18">
         <v>2057</v>
       </c>
@@ -9537,7 +9491,7 @@
       <c r="Q40" s="60"/>
       <c r="R40" s="61"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="18">
         <v>2058</v>
       </c>
@@ -9596,7 +9550,7 @@
       <c r="Q41" s="60"/>
       <c r="R41" s="61"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="18">
         <v>2059</v>
       </c>
@@ -9655,7 +9609,7 @@
       <c r="Q42" s="60"/>
       <c r="R42" s="61"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="18">
         <v>2060</v>
       </c>
@@ -9714,7 +9668,7 @@
       <c r="Q43" s="60"/>
       <c r="R43" s="61"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="18">
         <v>2061</v>
       </c>
@@ -9773,7 +9727,7 @@
       <c r="Q44" s="60"/>
       <c r="R44" s="61"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="18">
         <v>2062</v>
       </c>
@@ -9832,7 +9786,7 @@
       <c r="Q45" s="60"/>
       <c r="R45" s="61"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="18">
         <v>2063</v>
       </c>
@@ -9891,7 +9845,7 @@
       <c r="Q46" s="60"/>
       <c r="R46" s="61"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="18">
         <v>2064</v>
       </c>
@@ -9950,7 +9904,7 @@
       <c r="Q47" s="60"/>
       <c r="R47" s="61"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="18">
         <v>2065</v>
       </c>
@@ -10009,7 +9963,7 @@
       <c r="Q48" s="60"/>
       <c r="R48" s="61"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="18">
         <v>2066</v>
       </c>
@@ -10068,7 +10022,7 @@
       <c r="Q49" s="60"/>
       <c r="R49" s="61"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="18">
         <v>2067</v>
       </c>
@@ -10127,7 +10081,7 @@
       <c r="Q50" s="60"/>
       <c r="R50" s="61"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="18">
         <v>2068</v>
       </c>
@@ -10186,7 +10140,7 @@
       <c r="Q51" s="60"/>
       <c r="R51" s="61"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="18">
         <v>2069</v>
       </c>
@@ -10245,7 +10199,7 @@
       <c r="Q52" s="60"/>
       <c r="R52" s="61"/>
     </row>
-    <row r="53" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="22">
         <v>2070</v>
       </c>
@@ -10306,103 +10260,103 @@
       <c r="Q53" s="62"/>
       <c r="R53" s="63"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G57" s="26"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G58" s="26"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G59" s="26"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G60" s="26"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G61" s="26"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G62" s="26"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G63" s="26"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G64" s="26"/>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G65" s="26"/>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G66" s="26"/>
     </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G67" s="26"/>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G68" s="26"/>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G69" s="26"/>
     </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G70" s="26"/>
     </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G71" s="26"/>
     </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G72" s="26"/>
     </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G73" s="26"/>
     </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G74" s="26"/>
     </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G75" s="26"/>
     </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G76" s="26"/>
     </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G77" s="26"/>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G78" s="26"/>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G79" s="26"/>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G80" s="26"/>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G81" s="26"/>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G82" s="26"/>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G83" s="26"/>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G84" s="26"/>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G85" s="26"/>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G86" s="26"/>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G87" s="26"/>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G88" s="26"/>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G89" s="26"/>
     </row>
   </sheetData>
